--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>159.420828325316</v>
+        <v>190.664594</v>
       </c>
       <c r="H2">
-        <v>159.420828325316</v>
+        <v>571.993782</v>
       </c>
       <c r="I2">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="J2">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.966899296725201</v>
+        <v>1.092341333333333</v>
       </c>
       <c r="N2">
-        <v>0.966899296725201</v>
+        <v>3.277024</v>
       </c>
       <c r="O2">
-        <v>0.231072897681417</v>
+        <v>0.1566881615238948</v>
       </c>
       <c r="P2">
-        <v>0.231072897681417</v>
+        <v>0.1566881615238948</v>
       </c>
       <c r="Q2">
-        <v>154.143886791097</v>
+        <v>208.2708168294187</v>
       </c>
       <c r="R2">
-        <v>154.143886791097</v>
+        <v>1874.437351464768</v>
       </c>
       <c r="S2">
-        <v>0.04136539977770753</v>
+        <v>0.03136802393999168</v>
       </c>
       <c r="T2">
-        <v>0.04136539977770753</v>
+        <v>0.03136802393999168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>159.420828325316</v>
+        <v>190.664594</v>
       </c>
       <c r="H3">
-        <v>159.420828325316</v>
+        <v>571.993782</v>
       </c>
       <c r="I3">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="J3">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.42344724363638</v>
+        <v>0.146504</v>
       </c>
       <c r="N3">
-        <v>2.42344724363638</v>
+        <v>0.439512</v>
       </c>
       <c r="O3">
-        <v>0.5791637028403536</v>
+        <v>0.02101489865429428</v>
       </c>
       <c r="P3">
-        <v>0.5791637028403536</v>
+        <v>0.02101489865429428</v>
       </c>
       <c r="Q3">
-        <v>386.3479669832155</v>
+        <v>27.933125679376</v>
       </c>
       <c r="R3">
-        <v>386.3479669832155</v>
+        <v>251.398131114384</v>
       </c>
       <c r="S3">
-        <v>0.1036787020248428</v>
+        <v>0.004207055834169546</v>
       </c>
       <c r="T3">
-        <v>0.1036787020248428</v>
+        <v>0.004207055834169546</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>159.420828325316</v>
+        <v>190.664594</v>
       </c>
       <c r="H4">
-        <v>159.420828325316</v>
+        <v>571.993782</v>
       </c>
       <c r="I4">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="J4">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7940442143615321</v>
+        <v>3.199477333333333</v>
       </c>
       <c r="N4">
-        <v>0.7940442143615321</v>
+        <v>9.598431999999999</v>
       </c>
       <c r="O4">
-        <v>0.1897633994782294</v>
+        <v>0.4589409975612385</v>
       </c>
       <c r="P4">
-        <v>0.1897633994782294</v>
+        <v>0.4589409975612386</v>
       </c>
       <c r="Q4">
-        <v>126.5871863804402</v>
+        <v>610.0270467722025</v>
       </c>
       <c r="R4">
-        <v>126.5871863804402</v>
+        <v>5490.243420949823</v>
       </c>
       <c r="S4">
-        <v>0.03397040051584141</v>
+        <v>0.09187721687799118</v>
       </c>
       <c r="T4">
-        <v>0.03397040051584141</v>
+        <v>0.09187721687799119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>530.473071781051</v>
+        <v>190.664594</v>
       </c>
       <c r="H5">
-        <v>530.473071781051</v>
+        <v>571.993782</v>
       </c>
       <c r="I5">
-        <v>0.5956710546278936</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="J5">
-        <v>0.5956710546278936</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.966899296725201</v>
+        <v>2.533112333333334</v>
       </c>
       <c r="N5">
-        <v>0.966899296725201</v>
+        <v>7.599337000000001</v>
       </c>
       <c r="O5">
-        <v>0.231072897681417</v>
+        <v>0.3633559422605724</v>
       </c>
       <c r="P5">
-        <v>0.231072897681417</v>
+        <v>0.3633559422605724</v>
       </c>
       <c r="Q5">
-        <v>512.9140400367553</v>
+        <v>482.9748345913928</v>
       </c>
       <c r="R5">
-        <v>512.9140400367553</v>
+        <v>4346.773511322534</v>
       </c>
       <c r="S5">
-        <v>0.137643436657813</v>
+        <v>0.07274166589688223</v>
       </c>
       <c r="T5">
-        <v>0.137643436657813</v>
+        <v>0.07274166589688223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>530.473071781051</v>
+        <v>531.1103823333333</v>
       </c>
       <c r="H6">
-        <v>530.473071781051</v>
+        <v>1593.331147</v>
       </c>
       <c r="I6">
-        <v>0.5956710546278936</v>
+        <v>0.5576551459273178</v>
       </c>
       <c r="J6">
-        <v>0.5956710546278936</v>
+        <v>0.5576551459273177</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.42344724363638</v>
+        <v>1.092341333333333</v>
       </c>
       <c r="N6">
-        <v>2.42344724363638</v>
+        <v>3.277024</v>
       </c>
       <c r="O6">
-        <v>0.5791637028403536</v>
+        <v>0.1566881615238948</v>
       </c>
       <c r="P6">
-        <v>0.5791637028403536</v>
+        <v>0.1566881615238948</v>
       </c>
       <c r="Q6">
-        <v>1285.573503631111</v>
+        <v>580.1538231851698</v>
       </c>
       <c r="R6">
-        <v>1285.573503631111</v>
+        <v>5221.384408666528</v>
       </c>
       <c r="S6">
-        <v>0.3449910536731094</v>
+        <v>0.08737795957969069</v>
       </c>
       <c r="T6">
-        <v>0.3449910536731094</v>
+        <v>0.08737795957969066</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>530.473071781051</v>
+        <v>531.1103823333333</v>
       </c>
       <c r="H7">
-        <v>530.473071781051</v>
+        <v>1593.331147</v>
       </c>
       <c r="I7">
-        <v>0.5956710546278936</v>
+        <v>0.5576551459273178</v>
       </c>
       <c r="J7">
-        <v>0.5956710546278936</v>
+        <v>0.5576551459273177</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.7940442143615321</v>
+        <v>0.146504</v>
       </c>
       <c r="N7">
-        <v>0.7940442143615321</v>
+        <v>0.439512</v>
       </c>
       <c r="O7">
-        <v>0.1897633994782294</v>
+        <v>0.02101489865429428</v>
       </c>
       <c r="P7">
-        <v>0.1897633994782294</v>
+        <v>0.02101489865429428</v>
       </c>
       <c r="Q7">
-        <v>421.2190735223332</v>
+        <v>77.80979545336265</v>
       </c>
       <c r="R7">
-        <v>421.2190735223332</v>
+        <v>700.288159080264</v>
       </c>
       <c r="S7">
-        <v>0.1130365642969712</v>
+        <v>0.01171906637570827</v>
       </c>
       <c r="T7">
-        <v>0.1130365642969712</v>
+        <v>0.01171906637570827</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.08481145270071</v>
+        <v>531.1103823333333</v>
       </c>
       <c r="H8">
-        <v>65.08481145270071</v>
+        <v>1593.331147</v>
       </c>
       <c r="I8">
-        <v>0.07308408351082056</v>
+        <v>0.5576551459273178</v>
       </c>
       <c r="J8">
-        <v>0.07308408351082056</v>
+        <v>0.5576551459273177</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.966899296725201</v>
+        <v>3.199477333333333</v>
       </c>
       <c r="N8">
-        <v>0.966899296725201</v>
+        <v>9.598431999999999</v>
       </c>
       <c r="O8">
-        <v>0.231072897681417</v>
+        <v>0.4589409975612385</v>
       </c>
       <c r="P8">
-        <v>0.231072897681417</v>
+        <v>0.4589409975612386</v>
       </c>
       <c r="Q8">
-        <v>62.93045842110863</v>
+        <v>1699.2756297735</v>
       </c>
       <c r="R8">
-        <v>62.93045842110863</v>
+        <v>15293.4806679615</v>
       </c>
       <c r="S8">
-        <v>0.01688775095123597</v>
+        <v>0.2559308089670413</v>
       </c>
       <c r="T8">
-        <v>0.01688775095123597</v>
+        <v>0.2559308089670412</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.08481145270071</v>
+        <v>531.1103823333333</v>
       </c>
       <c r="H9">
-        <v>65.08481145270071</v>
+        <v>1593.331147</v>
       </c>
       <c r="I9">
-        <v>0.07308408351082056</v>
+        <v>0.5576551459273178</v>
       </c>
       <c r="J9">
-        <v>0.07308408351082056</v>
+        <v>0.5576551459273177</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.42344724363638</v>
+        <v>2.533112333333334</v>
       </c>
       <c r="N9">
-        <v>2.42344724363638</v>
+        <v>7.599337000000001</v>
       </c>
       <c r="O9">
-        <v>0.5791637028403536</v>
+        <v>0.3633559422605724</v>
       </c>
       <c r="P9">
-        <v>0.5791637028403536</v>
+        <v>0.3633559422605724</v>
       </c>
       <c r="Q9">
-        <v>157.729606917641</v>
+        <v>1345.362259849949</v>
       </c>
       <c r="R9">
-        <v>157.729606917641</v>
+        <v>12108.26033864954</v>
       </c>
       <c r="S9">
-        <v>0.04232764842482047</v>
+        <v>0.2026273110048776</v>
       </c>
       <c r="T9">
-        <v>0.04232764842482047</v>
+        <v>0.2026273110048775</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>65.08481145270071</v>
+        <v>79.06597733333334</v>
       </c>
       <c r="H10">
-        <v>65.08481145270071</v>
+        <v>237.197932</v>
       </c>
       <c r="I10">
-        <v>0.07308408351082056</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="J10">
-        <v>0.07308408351082056</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7940442143615321</v>
+        <v>1.092341333333333</v>
       </c>
       <c r="N10">
-        <v>0.7940442143615321</v>
+        <v>3.277024</v>
       </c>
       <c r="O10">
-        <v>0.1897633994782294</v>
+        <v>0.1566881615238948</v>
       </c>
       <c r="P10">
-        <v>0.1897633994782294</v>
+        <v>0.1566881615238948</v>
       </c>
       <c r="Q10">
-        <v>51.68021797682817</v>
+        <v>86.36703510159646</v>
       </c>
       <c r="R10">
-        <v>51.68021797682817</v>
+        <v>777.303315914368</v>
       </c>
       <c r="S10">
-        <v>0.01386868413476412</v>
+        <v>0.01300788687505788</v>
       </c>
       <c r="T10">
-        <v>0.01386868413476412</v>
+        <v>0.01300788687505788</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>135.568290279773</v>
+        <v>79.06597733333334</v>
       </c>
       <c r="H11">
-        <v>135.568290279773</v>
+        <v>237.197932</v>
       </c>
       <c r="I11">
-        <v>0.152230359542894</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="J11">
-        <v>0.152230359542894</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.966899296725201</v>
+        <v>0.146504</v>
       </c>
       <c r="N11">
-        <v>0.966899296725201</v>
+        <v>0.439512</v>
       </c>
       <c r="O11">
-        <v>0.231072897681417</v>
+        <v>0.02101489865429428</v>
       </c>
       <c r="P11">
-        <v>0.231072897681417</v>
+        <v>0.02101489865429428</v>
       </c>
       <c r="Q11">
-        <v>131.0808845297504</v>
+        <v>11.58348194324267</v>
       </c>
       <c r="R11">
-        <v>131.0808845297504</v>
+        <v>104.251337489184</v>
       </c>
       <c r="S11">
-        <v>0.03517631029466046</v>
+        <v>0.001744608027353611</v>
       </c>
       <c r="T11">
-        <v>0.03517631029466046</v>
+        <v>0.001744608027353611</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>135.568290279773</v>
+        <v>79.06597733333334</v>
       </c>
       <c r="H12">
-        <v>135.568290279773</v>
+        <v>237.197932</v>
       </c>
       <c r="I12">
-        <v>0.152230359542894</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="J12">
-        <v>0.152230359542894</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.42344724363638</v>
+        <v>3.199477333333333</v>
       </c>
       <c r="N12">
-        <v>2.42344724363638</v>
+        <v>9.598431999999999</v>
       </c>
       <c r="O12">
-        <v>0.5791637028403536</v>
+        <v>0.4589409975612385</v>
       </c>
       <c r="P12">
-        <v>0.5791637028403536</v>
+        <v>0.4589409975612386</v>
       </c>
       <c r="Q12">
-        <v>328.5425994030125</v>
+        <v>252.9698023158471</v>
       </c>
       <c r="R12">
-        <v>328.5425994030125</v>
+        <v>2276.728220842624</v>
       </c>
       <c r="S12">
-        <v>0.08816629871758083</v>
+        <v>0.03810021459529608</v>
       </c>
       <c r="T12">
-        <v>0.08816629871758083</v>
+        <v>0.03810021459529608</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>135.568290279773</v>
+        <v>79.06597733333334</v>
       </c>
       <c r="H13">
-        <v>135.568290279773</v>
+        <v>237.197932</v>
       </c>
       <c r="I13">
-        <v>0.152230359542894</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="J13">
-        <v>0.152230359542894</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7940442143615321</v>
+        <v>2.533112333333334</v>
       </c>
       <c r="N13">
-        <v>0.7940442143615321</v>
+        <v>7.599337000000001</v>
       </c>
       <c r="O13">
-        <v>0.1897633994782294</v>
+        <v>0.3633559422605724</v>
       </c>
       <c r="P13">
-        <v>0.1897633994782294</v>
+        <v>0.3633559422605724</v>
       </c>
       <c r="Q13">
-        <v>107.6472165475385</v>
+        <v>200.2830023301205</v>
       </c>
       <c r="R13">
-        <v>107.6472165475385</v>
+        <v>1802.547020971084</v>
       </c>
       <c r="S13">
-        <v>0.02888775053065269</v>
+        <v>0.03016496553624317</v>
       </c>
       <c r="T13">
-        <v>0.02888775053065269</v>
+        <v>0.03016496553624317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>151.5583673333333</v>
+      </c>
+      <c r="H14">
+        <v>454.675102</v>
+      </c>
+      <c r="I14">
+        <v>0.1591332164896969</v>
+      </c>
+      <c r="J14">
+        <v>0.1591332164896969</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.092341333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.277024</v>
+      </c>
+      <c r="O14">
+        <v>0.1566881615238948</v>
+      </c>
+      <c r="P14">
+        <v>0.1566881615238948</v>
+      </c>
+      <c r="Q14">
+        <v>165.5534690507164</v>
+      </c>
+      <c r="R14">
+        <v>1489.981221456448</v>
+      </c>
+      <c r="S14">
+        <v>0.02493429112915455</v>
+      </c>
+      <c r="T14">
+        <v>0.02493429112915455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>151.5583673333333</v>
+      </c>
+      <c r="H15">
+        <v>454.675102</v>
+      </c>
+      <c r="I15">
+        <v>0.1591332164896969</v>
+      </c>
+      <c r="J15">
+        <v>0.1591332164896969</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.146504</v>
+      </c>
+      <c r="N15">
+        <v>0.439512</v>
+      </c>
+      <c r="O15">
+        <v>0.02101489865429428</v>
+      </c>
+      <c r="P15">
+        <v>0.02101489865429428</v>
+      </c>
+      <c r="Q15">
+        <v>22.20390704780267</v>
+      </c>
+      <c r="R15">
+        <v>199.835163430224</v>
+      </c>
+      <c r="S15">
+        <v>0.003344168417062851</v>
+      </c>
+      <c r="T15">
+        <v>0.003344168417062851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>151.5583673333333</v>
+      </c>
+      <c r="H16">
+        <v>454.675102</v>
+      </c>
+      <c r="I16">
+        <v>0.1591332164896969</v>
+      </c>
+      <c r="J16">
+        <v>0.1591332164896969</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.199477333333333</v>
+      </c>
+      <c r="N16">
+        <v>9.598431999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.4589409975612385</v>
+      </c>
+      <c r="P16">
+        <v>0.4589409975612386</v>
+      </c>
+      <c r="Q16">
+        <v>484.9075609600071</v>
+      </c>
+      <c r="R16">
+        <v>4364.168048640064</v>
+      </c>
+      <c r="S16">
+        <v>0.07303275712091004</v>
+      </c>
+      <c r="T16">
+        <v>0.07303275712091004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>151.5583673333333</v>
+      </c>
+      <c r="H17">
+        <v>454.675102</v>
+      </c>
+      <c r="I17">
+        <v>0.1591332164896969</v>
+      </c>
+      <c r="J17">
+        <v>0.1591332164896969</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.533112333333334</v>
+      </c>
+      <c r="N17">
+        <v>7.599337000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.3633559422605724</v>
+      </c>
+      <c r="P17">
+        <v>0.3633559422605724</v>
+      </c>
+      <c r="Q17">
+        <v>383.9143695119305</v>
+      </c>
+      <c r="R17">
+        <v>3455.229325607375</v>
+      </c>
+      <c r="S17">
+        <v>0.05782199982256948</v>
+      </c>
+      <c r="T17">
+        <v>0.05782199982256948</v>
       </c>
     </row>
   </sheetData>
